--- a/public/assets/static/template/template-mahasiswa.xlsx
+++ b/public/assets/static/template/template-mahasiswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akmal\Latihan Pemograman\laravel\sirepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akmal\Latihan Pemograman\laravel\sirepo\develop\public\assets\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A9868-6C30-4E24-8BA3-06656A366F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470261B4-928D-424F-97EA-4A16B62FDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{38A51EE7-6E63-456A-8E2E-0A05C2E4525C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NPM</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Nama Mahasiswa</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Prodi_Id</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80336C-0893-46E7-95F4-13D5860E1D63}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,32 +416,40 @@
     <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
   </sheetData>

--- a/public/assets/static/template/template-mahasiswa.xlsx
+++ b/public/assets/static/template/template-mahasiswa.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\akmal\Latihan Pemograman\laravel\sirepo\develop\public\assets\static\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470261B4-928D-424F-97EA-4A16B62FDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{38A51EE7-6E63-456A-8E2E-0A05C2E4525C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,34 +24,26 @@
     <t>NPM</t>
   </si>
   <si>
+    <t>Nama Mahasiswa</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Nama Mahasiswa</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Prodi_Id</t>
+    <t>Kode Prodi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,19 +66,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,7 +105,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +117,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -184,23 +164,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,23 +199,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,20 +350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80336C-0893-46E7-95F4-13D5860E1D63}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -425,10 +371,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -436,21 +382,6 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
